--- a/data/support/common_cost_types_between_years.xlsx
+++ b/data/support/common_cost_types_between_years.xlsx
@@ -15,8 +15,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jon Minton</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jon Minton:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Combine with children's social care</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jon Minton:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+i.e. merge these two</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jon Minton:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+combine with adult social care</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jon Minton:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+consider imputing adult and child social care from split in later years</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
   <si>
     <t>Year</t>
   </si>
@@ -589,19 +695,53 @@
   </si>
   <si>
     <t xml:space="preserve">X__Reversal of Revenue expenditure funded from capital by statute  RECS </t>
+  </si>
+  <si>
+    <t>Recode</t>
+  </si>
+  <si>
+    <t>Capital charges__Total capital charges</t>
+  </si>
+  <si>
+    <t>COUNCIL TAX REQUIREMENT  TOTAL</t>
+  </si>
+  <si>
+    <t>Financial reserves levels at start tax year__Other earmarked financial reserves level</t>
+  </si>
+  <si>
+    <t>Financial reserves levels at start tax year__Schools reserves level</t>
+  </si>
+  <si>
+    <t>Financial reserves levels at start tax year__Unallocated financial reserves level</t>
+  </si>
+  <si>
+    <t>REVENUE EXPENDITURE  TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -708,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -725,11 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <border>
         <left style="thin">
@@ -757,24 +898,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1072,47 +1195,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>2009</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>2010</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>2011</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>2012</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>353</v>
-      </c>
-      <c r="C2">
-        <v>353</v>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>353</v>
@@ -1123,39 +1248,40 @@
       <c r="F2">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2">
+        <v>353</v>
+      </c>
+      <c r="H2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>353</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3">
+        <v>353</v>
+      </c>
+      <c r="H3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>353</v>
-      </c>
       <c r="D4">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>353</v>
@@ -1163,16 +1289,19 @@
       <c r="F4">
         <v>353</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="G4">
+        <v>353</v>
+      </c>
+      <c r="H4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>353</v>
-      </c>
-      <c r="C5">
-        <v>353</v>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>353</v>
@@ -1183,76 +1312,88 @@
       <c r="F5">
         <v>353</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="G5">
+        <v>353</v>
+      </c>
+      <c r="H5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>353</v>
-      </c>
-      <c r="C6">
-        <v>353</v>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>353</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>353</v>
-      </c>
-      <c r="C7">
-        <v>353</v>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
         <v>353</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>353</v>
-      </c>
-      <c r="C8">
-        <v>353</v>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D8">
         <v>353</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>353</v>
-      </c>
-      <c r="C9">
-        <v>353</v>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D9">
         <v>353</v>
@@ -1263,37 +1404,40 @@
       <c r="F9">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="G9">
+        <v>353</v>
+      </c>
+      <c r="H9">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>353</v>
+      </c>
+      <c r="H10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -1301,81 +1445,90 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>353</v>
+      </c>
+      <c r="H12">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>353</v>
+      </c>
+      <c r="H13">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>353</v>
-      </c>
-      <c r="C14">
-        <v>353</v>
-      </c>
       <c r="D14">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>353</v>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>353</v>
@@ -1383,196 +1536,217 @@
       <c r="F15">
         <v>353</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="G15">
+        <v>353</v>
+      </c>
+      <c r="H15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>353</v>
-      </c>
-      <c r="C16">
-        <v>353</v>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D16">
         <v>353</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>353</v>
-      </c>
-      <c r="C17">
-        <v>353</v>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D17">
         <v>353</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>353</v>
-      </c>
-      <c r="C18">
-        <v>353</v>
-      </c>
       <c r="D18">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>353</v>
-      </c>
-      <c r="C20">
-        <v>353</v>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D20">
         <v>353</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>353</v>
-      </c>
-      <c r="C21">
-        <v>353</v>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D21">
         <v>353</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>353</v>
-      </c>
       <c r="D22">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>353</v>
-      </c>
-      <c r="C23">
-        <v>353</v>
-      </c>
       <c r="D23">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>353</v>
-      </c>
-      <c r="C25">
-        <v>353</v>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D25">
         <v>353</v>
@@ -1581,19 +1755,22 @@
         <v>353</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G25">
+        <v>353</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -1601,19 +1778,20 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
         <v>0</v>
       </c>
@@ -1621,218 +1799,236 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>353</v>
+      </c>
+      <c r="H28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>353</v>
+      </c>
+      <c r="H29">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>353</v>
+      </c>
+      <c r="H30">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>353</v>
+      </c>
+      <c r="H31">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>353</v>
+      </c>
+      <c r="H32">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>353</v>
+      </c>
+      <c r="H33">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>353</v>
+      </c>
+      <c r="H34">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>353</v>
+      </c>
+      <c r="H35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
       <c r="D36">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>353</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="G36">
+        <v>353</v>
+      </c>
+      <c r="H36">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>353</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="G37">
+        <v>353</v>
+      </c>
+      <c r="H37">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>353</v>
-      </c>
-      <c r="C38">
-        <v>353</v>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D38">
         <v>353</v>
@@ -1843,56 +2039,60 @@
       <c r="F38">
         <v>353</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="G38">
+        <v>353</v>
+      </c>
+      <c r="H38">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
       <c r="D39">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>353</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="G39">
+        <v>353</v>
+      </c>
+      <c r="H39">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
       <c r="D40">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>353</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="G40">
+        <v>353</v>
+      </c>
+      <c r="H40">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>353</v>
-      </c>
-      <c r="C41">
-        <v>353</v>
+      <c r="C41" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D41">
         <v>353</v>
@@ -1903,56 +2103,65 @@
       <c r="F41">
         <v>353</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="G41">
+        <v>353</v>
+      </c>
+      <c r="H41">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>353</v>
+      </c>
+      <c r="H42">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>353</v>
-      </c>
-      <c r="C43">
-        <v>353</v>
-      </c>
       <c r="D43">
         <v>353</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>353</v>
-      </c>
-      <c r="C44">
-        <v>353</v>
+      <c r="C44" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D44">
         <v>353</v>
@@ -1963,36 +2172,39 @@
       <c r="F44">
         <v>353</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="G44">
+        <v>353</v>
+      </c>
+      <c r="H44">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>353</v>
-      </c>
-      <c r="C45">
-        <v>353</v>
-      </c>
       <c r="D45">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>353</v>
-      </c>
-      <c r="C46">
-        <v>353</v>
+      <c r="C46" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D46">
         <v>353</v>
@@ -2003,16 +2215,19 @@
       <c r="F46">
         <v>353</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="G46">
+        <v>353</v>
+      </c>
+      <c r="H46">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>353</v>
-      </c>
-      <c r="C47">
-        <v>353</v>
+      <c r="C47" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D47">
         <v>353</v>
@@ -2023,119 +2238,137 @@
       <c r="F47">
         <v>353</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="G47">
+        <v>353</v>
+      </c>
+      <c r="H47">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>353</v>
+      </c>
+      <c r="H48">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>353</v>
-      </c>
-      <c r="C49">
-        <v>353</v>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D49">
         <v>353</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>353</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="C50" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D50">
         <v>353</v>
       </c>
       <c r="E50">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="G50">
+        <v>353</v>
+      </c>
+      <c r="H50">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>353</v>
-      </c>
-      <c r="C51">
-        <v>353</v>
-      </c>
       <c r="D51">
         <v>353</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>353</v>
+      </c>
+      <c r="H52">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>353</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
       <c r="D53">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2143,19 +2376,22 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>353</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2163,19 +2399,22 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>353</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2183,217 +2422,248 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>353</v>
-      </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>353</v>
-      </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>353</v>
-      </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>353</v>
-      </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
       <c r="D60">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
       <c r="D61">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
       <c r="D62">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="G63">
+        <v>353</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="G64">
+        <v>353</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="G65">
+        <v>353</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
       <c r="D66">
         <v>0</v>
       </c>
@@ -2401,19 +2671,20 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -2421,19 +2692,22 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
       <c r="D68">
         <v>0</v>
       </c>
@@ -2441,19 +2715,22 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
       <c r="D69">
         <v>0</v>
       </c>
@@ -2461,18 +2738,21 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>353</v>
-      </c>
-      <c r="C70">
-        <v>353</v>
+      <c r="C70" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D70">
         <v>353</v>
@@ -2483,17 +2763,17 @@
       <c r="F70">
         <v>353</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G70">
+        <v>353</v>
+      </c>
+      <c r="H70">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>353</v>
-      </c>
-      <c r="C71">
-        <v>353</v>
-      </c>
       <c r="D71">
         <v>353</v>
       </c>
@@ -2501,18 +2781,21 @@
         <v>353</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G71">
+        <v>353</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>353</v>
-      </c>
-      <c r="C72">
-        <v>353</v>
+      <c r="C72" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D72">
         <v>353</v>
@@ -2523,16 +2806,19 @@
       <c r="F72">
         <v>353</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="G72">
+        <v>353</v>
+      </c>
+      <c r="H72">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>353</v>
-      </c>
-      <c r="C73">
-        <v>353</v>
+      <c r="C73" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D73">
         <v>353</v>
@@ -2543,16 +2829,19 @@
       <c r="F73">
         <v>353</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="G73">
+        <v>353</v>
+      </c>
+      <c r="H73">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>353</v>
-      </c>
-      <c r="C74">
-        <v>353</v>
+      <c r="C74" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D74">
         <v>353</v>
@@ -2563,16 +2852,19 @@
       <c r="F74">
         <v>353</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="G74">
+        <v>353</v>
+      </c>
+      <c r="H74">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>353</v>
-      </c>
-      <c r="C75">
-        <v>353</v>
+      <c r="C75" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D75">
         <v>353</v>
@@ -2583,16 +2875,19 @@
       <c r="F75">
         <v>353</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="G75">
+        <v>353</v>
+      </c>
+      <c r="H75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>353</v>
-      </c>
-      <c r="C76">
-        <v>353</v>
+      <c r="C76" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D76">
         <v>353</v>
@@ -2603,19 +2898,19 @@
       <c r="F76">
         <v>353</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="G76">
+        <v>353</v>
+      </c>
+      <c r="H76">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>353</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
       <c r="D77">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2623,37 +2918,37 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="G78">
+        <v>353</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
       <c r="D79">
         <v>0</v>
       </c>
@@ -2661,78 +2956,81 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>353</v>
+      </c>
+      <c r="H80">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>353</v>
+      </c>
+      <c r="H81">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>353</v>
+      </c>
+      <c r="H82">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>353</v>
-      </c>
-      <c r="C83">
-        <v>353</v>
+      <c r="C83" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D83">
         <v>353</v>
@@ -2743,19 +3041,20 @@
       <c r="F83">
         <v>353</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="G83">
+        <v>353</v>
+      </c>
+      <c r="H83">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>353</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
       <c r="D84">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2763,36 +3062,40 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>353</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
       <c r="D85">
         <v>353</v>
       </c>
       <c r="E85">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>353</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="G85">
+        <v>353</v>
+      </c>
+      <c r="H85">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>353</v>
-      </c>
-      <c r="C86">
-        <v>353</v>
+      <c r="C86" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D86">
         <v>353</v>
@@ -2803,19 +3106,20 @@
       <c r="F86">
         <v>353</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="G86">
+        <v>353</v>
+      </c>
+      <c r="H86">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>353</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
       <c r="D87">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2823,16 +3127,19 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>353</v>
-      </c>
-      <c r="C88">
-        <v>353</v>
+      <c r="C88" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D88">
         <v>353</v>
@@ -2843,16 +3150,19 @@
       <c r="F88">
         <v>353</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="G88">
+        <v>353</v>
+      </c>
+      <c r="H88">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>353</v>
-      </c>
-      <c r="C89">
-        <v>353</v>
+      <c r="C89" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D89">
         <v>353</v>
@@ -2863,16 +3173,19 @@
       <c r="F89">
         <v>353</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="G89">
+        <v>353</v>
+      </c>
+      <c r="H89">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>353</v>
-      </c>
-      <c r="C90">
-        <v>353</v>
+      <c r="C90" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D90">
         <v>353</v>
@@ -2883,56 +3196,65 @@
       <c r="F90">
         <v>353</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="G90">
+        <v>353</v>
+      </c>
+      <c r="H90">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>353</v>
-      </c>
-      <c r="C91">
-        <v>353</v>
-      </c>
       <c r="D91">
         <v>353</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>353</v>
+      </c>
+      <c r="H92">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>353</v>
-      </c>
-      <c r="C93">
-        <v>353</v>
+      <c r="C93" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D93">
         <v>353</v>
@@ -2943,56 +3265,65 @@
       <c r="F93">
         <v>353</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="G93">
+        <v>353</v>
+      </c>
+      <c r="H93">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>353</v>
-      </c>
-      <c r="C94">
-        <v>353</v>
-      </c>
       <c r="D94">
         <v>353</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>353</v>
+      </c>
+      <c r="H95">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>353</v>
-      </c>
-      <c r="C96">
-        <v>353</v>
+      <c r="C96" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D96">
         <v>353</v>
@@ -3003,16 +3334,19 @@
       <c r="F96">
         <v>353</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="G96">
+        <v>353</v>
+      </c>
+      <c r="H96">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>353</v>
-      </c>
-      <c r="C97">
-        <v>353</v>
+      <c r="C97" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D97">
         <v>353</v>
@@ -3023,37 +3357,37 @@
       <c r="F97">
         <v>353</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="G97">
+        <v>353</v>
+      </c>
+      <c r="H97">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
       <c r="D98">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>353</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="G98">
+        <v>353</v>
+      </c>
+      <c r="H98">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>353</v>
-      </c>
-      <c r="C99">
-        <v>353</v>
-      </c>
       <c r="D99">
         <v>353</v>
       </c>
@@ -3061,58 +3395,67 @@
         <v>353</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G99">
+        <v>353</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="G100">
+        <v>353</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>353</v>
-      </c>
-      <c r="C101">
-        <v>353</v>
+      <c r="C101" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D101">
         <v>353</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
-        <v>353</v>
-      </c>
-      <c r="C102">
-        <v>353</v>
+      <c r="C102" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D102">
         <v>353</v>
@@ -3123,439 +3466,463 @@
       <c r="F102">
         <v>353</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="G102">
+        <v>353</v>
+      </c>
+      <c r="H102">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>353</v>
-      </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>353</v>
-      </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>353</v>
-      </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>353</v>
-      </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>353</v>
-      </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>353</v>
-      </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>353</v>
-      </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>353</v>
-      </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>353</v>
-      </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>353</v>
-      </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>353</v>
-      </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>353</v>
-      </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>353</v>
-      </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>353</v>
-      </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>353</v>
-      </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>353</v>
-      </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>353</v>
-      </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>353</v>
-      </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>353</v>
-      </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>353</v>
-      </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123">
-        <v>353</v>
-      </c>
-      <c r="C123">
-        <v>353</v>
+      <c r="C123" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D123">
         <v>353</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>353</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
       <c r="D124">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3563,19 +3930,20 @@
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B125">
-        <v>353</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
       <c r="D125">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3583,19 +3951,20 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B126">
-        <v>353</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
       <c r="D126">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3603,19 +3972,20 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B127">
-        <v>353</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
       <c r="D127">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3623,19 +3993,20 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="9"/>
+      <c r="C128" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B128">
-        <v>353</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
       <c r="D128">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3643,19 +4014,20 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>353</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
       <c r="D129">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3663,19 +4035,20 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>353</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
       <c r="D130">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3683,19 +4056,20 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>353</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
       <c r="D131">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3703,19 +4077,20 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+      <c r="C132" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B132">
-        <v>353</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
       <c r="D132">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3723,19 +4098,20 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="9"/>
+      <c r="C133" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>353</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
       <c r="D133">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3743,19 +4119,20 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="9"/>
+      <c r="C134" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>353</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
       <c r="D134">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3763,19 +4140,20 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>353</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
       <c r="D135">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3783,19 +4161,20 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>353</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
       <c r="D136">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3803,19 +4182,20 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>353</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
       <c r="D137">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3823,19 +4203,20 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>353</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
       <c r="D138">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3843,19 +4224,20 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B139">
-        <v>353</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
       <c r="D139">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3863,19 +4245,20 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>353</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
       <c r="D140">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3883,19 +4266,20 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B141">
-        <v>353</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
       <c r="D141">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3903,19 +4287,20 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B142">
-        <v>353</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
       <c r="D142">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3923,19 +4308,20 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>353</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
       <c r="D143">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3943,97 +4329,110 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>353</v>
+      </c>
+      <c r="H144">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>353</v>
-      </c>
-      <c r="C145">
-        <v>353</v>
-      </c>
       <c r="D145">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
       <c r="D146">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
+      <c r="C147" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>353</v>
+      </c>
+      <c r="H147">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="9"/>
+      <c r="C148" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
       <c r="D148">
         <v>0</v>
       </c>
@@ -4041,19 +4440,20 @@
         <v>0</v>
       </c>
       <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
       <c r="D149">
         <v>0</v>
       </c>
@@ -4061,18 +4461,21 @@
         <v>0</v>
       </c>
       <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B150">
-        <v>353</v>
-      </c>
-      <c r="C150">
-        <v>353</v>
+      <c r="C150" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D150">
         <v>353</v>
@@ -4083,16 +4486,19 @@
       <c r="F150">
         <v>353</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="G150">
+        <v>353</v>
+      </c>
+      <c r="H150">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B151">
-        <v>353</v>
-      </c>
-      <c r="C151">
-        <v>353</v>
+      <c r="C151" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D151">
         <v>353</v>
@@ -4103,16 +4509,19 @@
       <c r="F151">
         <v>353</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="G151">
+        <v>353</v>
+      </c>
+      <c r="H151">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B152">
-        <v>353</v>
-      </c>
-      <c r="C152">
-        <v>353</v>
+      <c r="C152" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D152">
         <v>353</v>
@@ -4123,16 +4532,19 @@
       <c r="F152">
         <v>353</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="G152">
+        <v>353</v>
+      </c>
+      <c r="H152">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>353</v>
-      </c>
-      <c r="C153">
-        <v>353</v>
+      <c r="C153" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="D153">
         <v>353</v>
@@ -4143,16 +4555,19 @@
       <c r="F153">
         <v>353</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+      <c r="G153">
+        <v>353</v>
+      </c>
+      <c r="H153">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>353</v>
-      </c>
-      <c r="C154">
-        <v>353</v>
+      <c r="C154" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D154">
         <v>353</v>
@@ -4163,16 +4578,19 @@
       <c r="F154">
         <v>353</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="G154">
+        <v>353</v>
+      </c>
+      <c r="H154">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>353</v>
-      </c>
-      <c r="C155">
-        <v>353</v>
+      <c r="C155" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D155">
         <v>353</v>
@@ -4183,16 +4601,19 @@
       <c r="F155">
         <v>353</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+      <c r="G155">
+        <v>353</v>
+      </c>
+      <c r="H155">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>353</v>
-      </c>
-      <c r="C156">
-        <v>353</v>
+      <c r="C156" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D156">
         <v>353</v>
@@ -4203,36 +4624,39 @@
       <c r="F156">
         <v>353</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="G156">
+        <v>353</v>
+      </c>
+      <c r="H156">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
       <c r="D157">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>353</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="G157">
+        <v>353</v>
+      </c>
+      <c r="H157">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>353</v>
-      </c>
-      <c r="C158">
-        <v>353</v>
+      <c r="C158" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D158">
         <v>353</v>
@@ -4243,16 +4667,19 @@
       <c r="F158">
         <v>353</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="G158">
+        <v>353</v>
+      </c>
+      <c r="H158">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B159">
-        <v>353</v>
-      </c>
-      <c r="C159">
-        <v>353</v>
+      <c r="C159" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D159">
         <v>353</v>
@@ -4263,16 +4690,19 @@
       <c r="F159">
         <v>353</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
+      <c r="G159">
+        <v>353</v>
+      </c>
+      <c r="H159">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>353</v>
-      </c>
-      <c r="C160">
-        <v>353</v>
+      <c r="C160" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D160">
         <v>353</v>
@@ -4283,17 +4713,18 @@
       <c r="F160">
         <v>353</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="G160">
+        <v>353</v>
+      </c>
+      <c r="H160">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
       <c r="D161">
         <v>0</v>
       </c>
@@ -4301,19 +4732,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>353</v>
-      </c>
-      <c r="C162">
-        <v>353</v>
-      </c>
       <c r="D162">
         <v>353</v>
       </c>
@@ -4321,19 +4752,19 @@
         <v>353</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+        <v>353</v>
+      </c>
+      <c r="G162">
+        <v>353</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
       <c r="D163">
         <v>0</v>
       </c>
@@ -4341,21 +4772,24 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>353</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
       <c r="D164">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4363,76 +4797,88 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>353</v>
-      </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
       <c r="D166">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>353</v>
+      </c>
+      <c r="H167">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>353</v>
-      </c>
-      <c r="C168">
-        <v>353</v>
+      <c r="C168" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D168">
         <v>353</v>
@@ -4443,19 +4889,19 @@
       <c r="F168">
         <v>353</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="G168">
+        <v>353</v>
+      </c>
+      <c r="H168">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>353</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
       <c r="D169">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4463,19 +4909,19 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>353</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
       <c r="D170">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4483,36 +4929,40 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="12"/>
+      <c r="C171" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>353</v>
-      </c>
-      <c r="C171">
-        <v>353</v>
-      </c>
       <c r="D171">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>353</v>
-      </c>
-      <c r="C172">
-        <v>353</v>
+      <c r="C172" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D172">
         <v>353</v>
@@ -4523,16 +4973,19 @@
       <c r="F172">
         <v>353</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
+      <c r="G172">
+        <v>353</v>
+      </c>
+      <c r="H172">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>353</v>
-      </c>
-      <c r="C173">
-        <v>353</v>
+      <c r="C173" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D173">
         <v>353</v>
@@ -4543,16 +4996,19 @@
       <c r="F173">
         <v>353</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
+      <c r="G173">
+        <v>353</v>
+      </c>
+      <c r="H173">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>353</v>
-      </c>
-      <c r="C174">
-        <v>353</v>
+      <c r="C174" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D174">
         <v>353</v>
@@ -4563,57 +5019,58 @@
       <c r="F174">
         <v>353</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="G174">
+        <v>353</v>
+      </c>
+      <c r="H174">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>353</v>
-      </c>
-      <c r="C175">
-        <v>353</v>
-      </c>
       <c r="D175">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
       <c r="D176">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="9"/>
+      <c r="C177" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
       <c r="D177">
         <v>0</v>
       </c>
@@ -4621,19 +5078,20 @@
         <v>0</v>
       </c>
       <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
       <c r="D178">
         <v>0</v>
       </c>
@@ -4641,19 +5099,20 @@
         <v>0</v>
       </c>
       <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
         <v>326</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="9"/>
+      <c r="C179" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
       <c r="D179">
         <v>0</v>
       </c>
@@ -4661,19 +5120,20 @@
         <v>0</v>
       </c>
       <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
       <c r="D180">
         <v>0</v>
       </c>
@@ -4681,19 +5141,20 @@
         <v>0</v>
       </c>
       <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="9"/>
+      <c r="C181" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
       <c r="D181">
         <v>0</v>
       </c>
@@ -4701,98 +5162,107 @@
         <v>0</v>
       </c>
       <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
+      <c r="C182" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>353</v>
+      </c>
+      <c r="H182">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>353</v>
-      </c>
-      <c r="C183">
-        <v>353</v>
-      </c>
       <c r="D183">
         <v>353</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+        <v>353</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
         <v>183</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
       <c r="D184">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+        <v>353</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>353</v>
+      </c>
+      <c r="H185">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B186">
-        <v>353</v>
-      </c>
-      <c r="C186">
-        <v>353</v>
+      <c r="C186" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D186">
         <v>353</v>
@@ -4803,19 +5273,20 @@
       <c r="F186">
         <v>353</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="G186">
+        <v>353</v>
+      </c>
+      <c r="H186">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="9"/>
+      <c r="C187" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B187">
-        <v>353</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
       <c r="D187">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -4823,97 +5294,111 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="s">
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="9"/>
+      <c r="C188" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188">
-        <v>353</v>
-      </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="9"/>
+      <c r="C189" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>353</v>
-      </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="9"/>
+      <c r="C190" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>353</v>
-      </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="9"/>
+      <c r="C191" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>353</v>
-      </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F191">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <mergeCells count="1">
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:H191">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/support/common_cost_types_between_years.xlsx
+++ b/data/support/common_cost_types_between_years.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="375" windowWidth="17955" windowHeight="11790"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="198">
   <si>
     <t>Year</t>
   </si>
@@ -721,8 +721,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -857,7 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -984,7 +983,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1019,7 +1017,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1195,21 +1192,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="3" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>191</v>
       </c>
@@ -1232,11 +1229,11 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2">
@@ -1255,9 +1252,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3">
@@ -1276,8 +1273,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D4">
@@ -1296,11 +1294,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5">
@@ -1319,11 +1317,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D6">
@@ -1342,11 +1340,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D7">
@@ -1365,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1388,11 +1386,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
@@ -1411,11 +1409,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D10">
@@ -1434,8 +1432,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11">
@@ -1454,11 +1453,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12">
@@ -1477,7 +1476,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1500,8 +1499,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D14">
@@ -1520,11 +1520,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D15">
@@ -1543,11 +1543,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D16">
@@ -1566,11 +1566,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17">
@@ -1589,8 +1589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18">
@@ -1609,8 +1610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D19">
@@ -1629,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1675,8 +1677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22">
@@ -1695,11 +1698,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D23">
@@ -1718,11 +1721,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24">
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1764,8 +1767,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1787,8 +1790,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
+    <row r="27" spans="2:8">
+      <c r="B27" s="15"/>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1808,11 +1811,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D28">
@@ -1831,11 +1834,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D29">
@@ -1854,7 +1857,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
+      <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1924,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
+      <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1945,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
+      <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1960,11 +1966,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D35">
@@ -1983,8 +1989,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D36">
@@ -2003,8 +2010,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D37">
@@ -2023,11 +2031,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="2:8">
+      <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D38">
@@ -2046,9 +2054,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
+    <row r="39" spans="2:8">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D39">
@@ -2067,8 +2075,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="2:8">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D40">
@@ -2087,11 +2096,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="2:8">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D41">
@@ -2110,7 +2119,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="s">
         <v>193</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="s">
         <v>193</v>
       </c>
@@ -2156,11 +2165,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+    <row r="44" spans="2:8">
+      <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D44">
@@ -2179,7 +2188,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -2199,11 +2208,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="2:8">
+      <c r="B46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D46">
@@ -2222,11 +2231,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="2:8">
+      <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D47">
@@ -2245,7 +2254,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2291,11 +2300,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+    <row r="50" spans="2:8">
+      <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D50">
@@ -2314,7 +2323,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8">
       <c r="B53" s="3" t="s">
         <v>194</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
         <v>195</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55" s="5" t="s">
         <v>196</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="3" t="s">
         <v>194</v>
       </c>
@@ -2452,9 +2461,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
+    <row r="57" spans="2:8">
+      <c r="B57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D57">
@@ -2473,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58" s="4" t="s">
         <v>195</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59" s="5" t="s">
         <v>196</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="3" t="s">
         <v>194</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="B61" s="4" t="s">
         <v>195</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="5" t="s">
         <v>196</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8">
       <c r="B63" s="3" t="s">
         <v>194</v>
       </c>
@@ -2611,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8">
       <c r="B64" s="4" t="s">
         <v>195</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8">
       <c r="B65" s="5" t="s">
         <v>196</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="B66" s="3" t="s">
         <v>194</v>
       </c>
@@ -2680,9 +2691,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
+    <row r="67" spans="2:8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D67">
@@ -2701,7 +2712,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
         <v>195</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="B69" s="3" t="s">
         <v>194</v>
       </c>
@@ -2747,11 +2758,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+    <row r="70" spans="2:8">
+      <c r="B70" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D70">
@@ -2770,8 +2781,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="71" spans="2:8">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D71">
@@ -2790,11 +2802,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+    <row r="72" spans="2:8">
+      <c r="B72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D72">
@@ -2813,11 +2825,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+    <row r="73" spans="2:8">
+      <c r="B73" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D73">
@@ -2836,11 +2848,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+    <row r="74" spans="2:8">
+      <c r="B74" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D74">
@@ -2859,11 +2871,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+    <row r="75" spans="2:8">
+      <c r="B75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D75">
@@ -2882,11 +2894,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+    <row r="76" spans="2:8">
+      <c r="B76" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D76">
@@ -2905,8 +2917,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="77" spans="2:8">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D77">
@@ -2925,8 +2938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="78" spans="2:8">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D78">
@@ -2945,8 +2959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="79" spans="2:8">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D79">
@@ -2965,8 +2980,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="80" spans="2:8">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D80">
@@ -2985,8 +3001,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="81" spans="2:8">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D81">
@@ -3005,8 +3022,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="82" spans="2:8">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D82">
@@ -3025,11 +3043,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
+    <row r="83" spans="2:8">
+      <c r="B83" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D83">
@@ -3048,9 +3066,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9" t="s">
+    <row r="84" spans="2:8">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D84">
@@ -3069,9 +3087,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
+    <row r="85" spans="2:8">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D85">
@@ -3090,11 +3108,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+    <row r="86" spans="2:8">
+      <c r="B86" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D86">
@@ -3113,9 +3131,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
+    <row r="87" spans="2:8">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D87">
@@ -3134,11 +3152,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+    <row r="88" spans="2:8">
+      <c r="B88" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D88">
@@ -3157,11 +3175,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
+    <row r="89" spans="2:8">
+      <c r="B89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D89">
@@ -3180,11 +3198,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+    <row r="90" spans="2:8">
+      <c r="B90" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D90">
@@ -3203,7 +3221,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8">
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8">
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
@@ -3249,11 +3267,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
+    <row r="93" spans="2:8">
+      <c r="B93" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D93">
@@ -3272,7 +3290,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94" s="6" t="s">
         <v>94</v>
       </c>
@@ -3295,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95" s="6" t="s">
         <v>94</v>
       </c>
@@ -3318,11 +3336,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+    <row r="96" spans="2:8">
+      <c r="B96" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D96">
@@ -3341,11 +3359,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
+    <row r="97" spans="2:8">
+      <c r="B97" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D97">
@@ -3364,8 +3382,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="98" spans="2:8">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D98">
@@ -3384,8 +3403,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="99" spans="2:8">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D99">
@@ -3404,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100" s="6" t="s">
         <v>100</v>
       </c>
@@ -3427,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101" s="6" t="s">
         <v>100</v>
       </c>
@@ -3450,11 +3470,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+    <row r="102" spans="2:8">
+      <c r="B102" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D102">
@@ -3473,9 +3493,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9" t="s">
+    <row r="103" spans="2:8">
+      <c r="B103" s="8"/>
+      <c r="C103" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D103">
@@ -3494,9 +3514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
+    <row r="104" spans="2:8">
+      <c r="B104" s="8"/>
+      <c r="C104" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D104">
@@ -3515,9 +3535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9" t="s">
+    <row r="105" spans="2:8">
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D105">
@@ -3536,9 +3556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
+    <row r="106" spans="2:8">
+      <c r="B106" s="8"/>
+      <c r="C106" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D106">
@@ -3557,9 +3577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9" t="s">
+    <row r="107" spans="2:8">
+      <c r="B107" s="8"/>
+      <c r="C107" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D107">
@@ -3578,9 +3598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9" t="s">
+    <row r="108" spans="2:8">
+      <c r="B108" s="8"/>
+      <c r="C108" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D108">
@@ -3599,9 +3619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="2:8">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D109">
@@ -3620,9 +3640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-      <c r="C110" s="9" t="s">
+    <row r="110" spans="2:8">
+      <c r="B110" s="8"/>
+      <c r="C110" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D110">
@@ -3641,9 +3661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="C111" s="9" t="s">
+    <row r="111" spans="2:8">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D111">
@@ -3662,9 +3682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-      <c r="C112" s="9" t="s">
+    <row r="112" spans="2:8">
+      <c r="B112" s="8"/>
+      <c r="C112" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D112">
@@ -3683,9 +3703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="9"/>
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="2:8">
+      <c r="B113" s="8"/>
+      <c r="C113" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D113">
@@ -3704,9 +3724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="9"/>
-      <c r="C114" s="9" t="s">
+    <row r="114" spans="2:8">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D114">
@@ -3725,9 +3745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="9"/>
-      <c r="C115" s="9" t="s">
+    <row r="115" spans="2:8">
+      <c r="B115" s="8"/>
+      <c r="C115" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D115">
@@ -3746,9 +3766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="9"/>
-      <c r="C116" s="9" t="s">
+    <row r="116" spans="2:8">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D116">
@@ -3767,9 +3787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="9"/>
-      <c r="C117" s="9" t="s">
+    <row r="117" spans="2:8">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D117">
@@ -3788,9 +3808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="9"/>
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="2:8">
+      <c r="B118" s="8"/>
+      <c r="C118" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D118">
@@ -3809,9 +3829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="9"/>
-      <c r="C119" s="9" t="s">
+    <row r="119" spans="2:8">
+      <c r="B119" s="8"/>
+      <c r="C119" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D119">
@@ -3830,9 +3850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9" t="s">
+    <row r="120" spans="2:8">
+      <c r="B120" s="8"/>
+      <c r="C120" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D120">
@@ -3851,9 +3871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9" t="s">
+    <row r="121" spans="2:8">
+      <c r="B121" s="8"/>
+      <c r="C121" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D121">
@@ -3872,9 +3892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9" t="s">
+    <row r="122" spans="2:8">
+      <c r="B122" s="8"/>
+      <c r="C122" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D122">
@@ -3893,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
@@ -3916,9 +3936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="9"/>
-      <c r="C124" s="9" t="s">
+    <row r="124" spans="2:8">
+      <c r="B124" s="8"/>
+      <c r="C124" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D124">
@@ -3937,9 +3957,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="9"/>
-      <c r="C125" s="9" t="s">
+    <row r="125" spans="2:8">
+      <c r="B125" s="8"/>
+      <c r="C125" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D125">
@@ -3958,9 +3978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
-      <c r="C126" s="9" t="s">
+    <row r="126" spans="2:8">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D126">
@@ -3979,9 +3999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="9"/>
-      <c r="C127" s="9" t="s">
+    <row r="127" spans="2:8">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D127">
@@ -4000,9 +4020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
-      <c r="C128" s="9" t="s">
+    <row r="128" spans="2:8">
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D128">
@@ -4021,9 +4041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="9"/>
-      <c r="C129" s="9" t="s">
+    <row r="129" spans="2:8">
+      <c r="B129" s="8"/>
+      <c r="C129" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D129">
@@ -4042,9 +4062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
-      <c r="C130" s="9" t="s">
+    <row r="130" spans="2:8">
+      <c r="B130" s="8"/>
+      <c r="C130" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D130">
@@ -4063,9 +4083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
-      <c r="C131" s="9" t="s">
+    <row r="131" spans="2:8">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D131">
@@ -4084,9 +4104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="9"/>
-      <c r="C132" s="9" t="s">
+    <row r="132" spans="2:8">
+      <c r="B132" s="8"/>
+      <c r="C132" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D132">
@@ -4105,9 +4125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="9"/>
-      <c r="C133" s="9" t="s">
+    <row r="133" spans="2:8">
+      <c r="B133" s="8"/>
+      <c r="C133" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D133">
@@ -4126,9 +4146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
-      <c r="C134" s="9" t="s">
+    <row r="134" spans="2:8">
+      <c r="B134" s="8"/>
+      <c r="C134" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D134">
@@ -4147,9 +4167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="9"/>
-      <c r="C135" s="9" t="s">
+    <row r="135" spans="2:8">
+      <c r="B135" s="8"/>
+      <c r="C135" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D135">
@@ -4168,9 +4188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9" t="s">
+    <row r="136" spans="2:8">
+      <c r="B136" s="8"/>
+      <c r="C136" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D136">
@@ -4189,9 +4209,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9" t="s">
+    <row r="137" spans="2:8">
+      <c r="B137" s="8"/>
+      <c r="C137" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D137">
@@ -4210,9 +4230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9" t="s">
+    <row r="138" spans="2:8">
+      <c r="B138" s="8"/>
+      <c r="C138" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D138">
@@ -4231,9 +4251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
+    <row r="139" spans="2:8">
+      <c r="B139" s="8"/>
+      <c r="C139" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D139">
@@ -4252,9 +4272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
-      <c r="C140" s="9" t="s">
+    <row r="140" spans="2:8">
+      <c r="B140" s="8"/>
+      <c r="C140" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D140">
@@ -4273,9 +4293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
-      <c r="C141" s="9" t="s">
+    <row r="141" spans="2:8">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D141">
@@ -4294,9 +4314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="9"/>
-      <c r="C142" s="9" t="s">
+    <row r="142" spans="2:8">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D142">
@@ -4315,9 +4335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="9"/>
-      <c r="C143" s="9" t="s">
+    <row r="143" spans="2:8">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D143">
@@ -4336,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8">
       <c r="B144" s="1" t="s">
         <v>122</v>
       </c>
@@ -4359,7 +4379,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8">
       <c r="B145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4382,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8">
       <c r="B146" s="1" t="s">
         <v>146</v>
       </c>
@@ -4405,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8">
       <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
@@ -4428,9 +4448,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="9"/>
-      <c r="C148" s="9" t="s">
+    <row r="148" spans="2:8">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D148">
@@ -4449,9 +4469,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9" t="s">
+    <row r="149" spans="2:8">
+      <c r="B149" s="8"/>
+      <c r="C149" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D149">
@@ -4470,11 +4490,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="10" t="s">
+    <row r="150" spans="2:8">
+      <c r="B150" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D150">
@@ -4493,11 +4513,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="10" t="s">
+    <row r="151" spans="2:8">
+      <c r="B151" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D151">
@@ -4516,11 +4536,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
+    <row r="152" spans="2:8">
+      <c r="B152" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D152">
@@ -4539,11 +4559,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="10" t="s">
+    <row r="153" spans="2:8">
+      <c r="B153" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D153">
@@ -4562,11 +4582,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="10" t="s">
+    <row r="154" spans="2:8">
+      <c r="B154" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D154">
@@ -4585,11 +4605,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+    <row r="155" spans="2:8">
+      <c r="B155" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="9" t="s">
         <v>154</v>
       </c>
       <c r="D155">
@@ -4608,11 +4628,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="10" t="s">
+    <row r="156" spans="2:8">
+      <c r="B156" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D156">
@@ -4631,10 +4651,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+    <row r="157" spans="2:8">
+      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="D157">
         <v>0</v>
       </c>
@@ -4651,11 +4674,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="10" t="s">
+    <row r="158" spans="2:8">
+      <c r="B158" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D158">
@@ -4674,11 +4697,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
+    <row r="159" spans="2:8">
+      <c r="B159" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D159">
@@ -4697,11 +4720,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="10" t="s">
+    <row r="160" spans="2:8">
+      <c r="B160" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D160">
@@ -4720,9 +4743,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9" t="s">
+    <row r="161" spans="2:8">
+      <c r="B161" s="8"/>
+      <c r="C161" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D161">
@@ -4741,8 +4764,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
+    <row r="162" spans="2:8">
+      <c r="B162" s="8"/>
+      <c r="C162" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D162">
@@ -4761,8 +4785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+    <row r="163" spans="2:8">
+      <c r="B163" s="8"/>
+      <c r="C163" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D163">
@@ -4781,7 +4806,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8">
       <c r="B164" s="1" t="s">
         <v>197</v>
       </c>
@@ -4804,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8">
       <c r="B165" s="1" t="s">
         <v>197</v>
       </c>
@@ -4827,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8">
       <c r="B166" s="1" t="s">
         <v>197</v>
       </c>
@@ -4850,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8">
       <c r="B167" s="1" t="s">
         <v>197</v>
       </c>
@@ -4873,11 +4898,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="10" t="s">
+    <row r="168" spans="2:8">
+      <c r="B168" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D168">
@@ -4896,8 +4921,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
+    <row r="169" spans="2:8">
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D169">
@@ -4916,8 +4942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
+    <row r="170" spans="2:8">
+      <c r="B170" s="8"/>
+      <c r="C170" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D170">
@@ -4936,9 +4963,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="12"/>
-      <c r="C171" s="12" t="s">
+    <row r="171" spans="2:8">
+      <c r="B171" s="11"/>
+      <c r="C171" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D171">
@@ -4957,11 +4984,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
+    <row r="172" spans="2:8">
+      <c r="B172" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D172">
@@ -4980,11 +5007,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
+    <row r="173" spans="2:8">
+      <c r="B173" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>172</v>
       </c>
       <c r="D173">
@@ -5003,11 +5030,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="10" t="s">
+    <row r="174" spans="2:8">
+      <c r="B174" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D174">
@@ -5026,8 +5053,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="175" spans="2:8">
+      <c r="B175" s="8"/>
+      <c r="C175" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D175">
@@ -5046,8 +5074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="176" spans="2:8">
+      <c r="B176" s="8"/>
+      <c r="C176" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D176">
@@ -5066,9 +5095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="9"/>
-      <c r="C177" s="9" t="s">
+    <row r="177" spans="2:8">
+      <c r="B177" s="8"/>
+      <c r="C177" s="8" t="s">
         <v>176</v>
       </c>
       <c r="D177">
@@ -5087,9 +5116,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="9"/>
-      <c r="C178" s="9" t="s">
+    <row r="178" spans="2:8">
+      <c r="B178" s="8"/>
+      <c r="C178" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D178">
@@ -5108,9 +5137,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" s="9"/>
-      <c r="C179" s="9" t="s">
+    <row r="179" spans="2:8">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D179">
@@ -5129,9 +5158,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="9"/>
-      <c r="C180" s="9" t="s">
+    <row r="180" spans="2:8">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D180">
@@ -5150,9 +5179,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="9"/>
-      <c r="C181" s="9" t="s">
+    <row r="181" spans="2:8">
+      <c r="B181" s="8"/>
+      <c r="C181" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D181">
@@ -5171,7 +5200,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8">
       <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
@@ -5194,7 +5223,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8">
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
@@ -5217,8 +5246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+    <row r="184" spans="2:8">
+      <c r="B184" s="8"/>
+      <c r="C184" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D184">
@@ -5237,8 +5267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
+    <row r="185" spans="2:8">
+      <c r="B185" s="8"/>
+      <c r="C185" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D185">
@@ -5257,11 +5288,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="10" t="s">
+    <row r="186" spans="2:8">
+      <c r="B186" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D186">
@@ -5280,9 +5311,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9" t="s">
+    <row r="187" spans="2:8">
+      <c r="B187" s="8"/>
+      <c r="C187" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D187">
@@ -5301,9 +5332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="9"/>
-      <c r="C188" s="9" t="s">
+    <row r="188" spans="2:8">
+      <c r="B188" s="8"/>
+      <c r="C188" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D188">
@@ -5322,9 +5353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="9"/>
-      <c r="C189" s="9" t="s">
+    <row r="189" spans="2:8">
+      <c r="B189" s="8"/>
+      <c r="C189" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D189">
@@ -5343,9 +5374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="9"/>
-      <c r="C190" s="9" t="s">
+    <row r="190" spans="2:8">
+      <c r="B190" s="8"/>
+      <c r="C190" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D190">
@@ -5364,9 +5395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="9"/>
-      <c r="C191" s="9" t="s">
+    <row r="191" spans="2:8">
+      <c r="B191" s="8"/>
+      <c r="C191" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D191">
@@ -5403,24 +5434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
